--- a/sputnik/personal/cel/cel9.xlsx
+++ b/sputnik/personal/cel/cel9.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Начислен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2020</t>
   </si>
 </sst>
 </file>
@@ -47,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.00\ _₽"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ _₽"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -165,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -191,11 +194,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -211,6 +214,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -521,7 +525,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -597,9 +601,15 @@
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="19">
+        <v>43952</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1000</v>
+      </c>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/cel/cel9.xlsx
+++ b/sputnik/personal/cel/cel9.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -168,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -215,6 +215,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -522,10 +525,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C9" sqref="C9:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -613,10 +616,52 @@
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="19">
+        <v>44210</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>44210</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>44210</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="17">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>44210</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="20">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel9.xlsx
+++ b/sputnik/personal/cel/cel9.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2020</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -525,10 +531,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C11"/>
+      <selection activeCell="A12" sqref="A12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -661,6 +667,28 @@
       <c r="C11" s="10"/>
       <c r="D11" s="20">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>44317</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1650</v>
       </c>
     </row>
   </sheetData>
